--- a/plots/box plot.xlsx
+++ b/plots/box plot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzin/CRP_RL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzin/CRP_RL/plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F7BD77-91CE-CC4A-A23A-5B3AFD28D44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8FE40C0-2BA1-B643-9DEF-9B4A766A40E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35020" yWindow="500" windowWidth="33780" windowHeight="28300" xr2:uid="{3DCD0C71-1AC5-9D40-AB46-9515657B3FEE}"/>
+    <workbookView xWindow="1240" yWindow="500" windowWidth="33780" windowHeight="28300" xr2:uid="{3DCD0C71-1AC5-9D40-AB46-9515657B3FEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -922,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356FD640-2254-CF41-8259-6B1CF9220F19}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E147" sqref="E147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>20.633403359999999</v>
+        <v>25.997591230000001</v>
       </c>
       <c r="C2" s="1">
-        <v>7.6992718050000004</v>
+        <v>8.3415071100000002</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -955,10 +955,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>20.996086729999998</v>
+        <v>26.576008529999999</v>
       </c>
       <c r="C3" s="1">
-        <v>7.1604197359999997</v>
+        <v>7.7126799970000004</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -966,10 +966,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>20.08719438</v>
+        <v>25.136389879999999</v>
       </c>
       <c r="C4" s="1">
-        <v>8.2571202780000004</v>
+        <v>9.0002846030000008</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -977,10 +977,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>19.675693339999999</v>
+        <v>24.49531674</v>
       </c>
       <c r="C5" s="1">
-        <v>7.0849816859999999</v>
+        <v>7.6252276700000001</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -988,10 +988,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>19.198930709999999</v>
+        <v>23.760738419999999</v>
       </c>
       <c r="C6" s="1">
-        <v>8.2716604189999998</v>
+        <v>9.0175625729999993</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -999,10 +999,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>20.257700889999999</v>
+        <v>25.403958899999999</v>
       </c>
       <c r="C7" s="1">
-        <v>6.8172797340000004</v>
+        <v>7.3160342539999998</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1010,10 +1010,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>19.404574740000001</v>
+        <v>24.07652131</v>
       </c>
       <c r="C8" s="1">
-        <v>6.7537543219999998</v>
+        <v>7.2429235869999999</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1021,10 +1021,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>21.822858149999998</v>
+        <v>27.914627769999999</v>
       </c>
       <c r="C9" s="1">
-        <v>7.9970632200000002</v>
+        <v>8.6921825540000004</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1032,10 +1032,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>21.388156460000001</v>
+        <v>27.20729536</v>
       </c>
       <c r="C10" s="1">
-        <v>9.7300663519999997</v>
+        <v>10.778856210000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1043,10 +1043,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>17.993125979999999</v>
+        <v>21.940997249999999</v>
       </c>
       <c r="C11" s="1">
-        <v>7.0305189119999998</v>
+        <v>7.5621793620000002</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1054,10 +1054,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>19.594140889999998</v>
+        <v>24.36904612</v>
       </c>
       <c r="C12" s="1">
-        <v>7.4532152780000001</v>
+        <v>8.0534567470000002</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1065,10 +1065,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>19.556821710000001</v>
+        <v>24.31134887</v>
       </c>
       <c r="C13" s="1">
-        <v>7.7827113079999997</v>
+        <v>8.4395360339999996</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1076,10 +1076,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>19.79147545</v>
+        <v>24.675027440000001</v>
       </c>
       <c r="C14" s="1">
-        <v>7.7570673350000003</v>
+        <v>8.4093893279999996</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1087,10 +1087,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>20.919939719999999</v>
+        <v>26.45412718</v>
       </c>
       <c r="C15" s="1">
-        <v>7.5923280489999998</v>
+        <v>8.2161230639999996</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1098,10 +1098,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>19.737686109999999</v>
+        <v>24.59147407</v>
       </c>
       <c r="C16" s="1">
-        <v>7.070374063</v>
+        <v>7.6083100430000004</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1109,10 +1109,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>20.010408250000001</v>
+        <v>25.016265010000001</v>
       </c>
       <c r="C17" s="1">
-        <v>7.7384158100000002</v>
+        <v>8.3874733760000009</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1120,10 +1120,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>20.18853013</v>
+        <v>25.29527418</v>
       </c>
       <c r="C18" s="1">
-        <v>7.9929110149999998</v>
+        <v>8.6872773639999998</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1131,10 +1131,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>19.877999119999998</v>
+        <v>24.809663889999999</v>
       </c>
       <c r="C19" s="1">
-        <v>6.9483066080000002</v>
+        <v>7.4671468670000003</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1142,10 +1142,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>18.73214596</v>
+        <v>23.04988384</v>
       </c>
       <c r="C20" s="1">
-        <v>7.151475123</v>
+        <v>7.7023034370000003</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1153,10 +1153,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>19.589919139999999</v>
+        <v>24.362516400000001</v>
       </c>
       <c r="C21" s="1">
-        <v>7.3967326079999998</v>
+        <v>7.9875503490000002</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1164,10 +1164,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>20.655897</v>
+        <v>26.033310879999998</v>
       </c>
       <c r="C22" s="1">
-        <v>12.838652140000001</v>
+        <v>14.72975402</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1175,10 +1175,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>20.746518300000002</v>
+        <v>26.177421930000001</v>
       </c>
       <c r="C23" s="1">
-        <v>12.18130172</v>
+        <v>13.870965930000001</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1186,10 +1186,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>21.18660328</v>
+        <v>26.88198221</v>
       </c>
       <c r="C24" s="1">
-        <v>12.375268930000001</v>
+        <v>14.12303213</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1197,10 +1197,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>21.022940389999999</v>
+        <v>26.619046709999999</v>
       </c>
       <c r="C25" s="1">
-        <v>11.63233367</v>
+        <v>13.163563269999999</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1208,10 +1208,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>20.884072530000001</v>
+        <v>26.396799229999999</v>
       </c>
       <c r="C26" s="1">
-        <v>12.000203539999999</v>
+        <v>13.63662647</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1219,10 +1219,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>20.92684886</v>
+        <v>26.4651763</v>
       </c>
       <c r="C27" s="1">
-        <v>12.62236008</v>
+        <v>14.445755330000001</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1230,10 +1230,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>21.067762940000001</v>
+        <v>26.69094874</v>
       </c>
       <c r="C28" s="1">
-        <v>12.977479369999999</v>
+        <v>14.91278266</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1241,10 +1241,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>21.17226947</v>
+        <v>26.858910349999999</v>
       </c>
       <c r="C29" s="1">
-        <v>11.565819360000001</v>
+        <v>13.07844916</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1252,10 +1252,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>20.98660443</v>
+        <v>26.560818300000001</v>
       </c>
       <c r="C30" s="1">
-        <v>12.21534771</v>
+        <v>13.915129110000001</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1263,10 +1263,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>20.73059172</v>
+        <v>26.152070729999998</v>
       </c>
       <c r="C31" s="1">
-        <v>12.175405230000001</v>
+        <v>13.863320699999999</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1274,10 +1274,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>20.288882959999999</v>
+        <v>25.453015489999999</v>
       </c>
       <c r="C32" s="1">
-        <v>12.069642529999999</v>
+        <v>13.72636582</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1285,10 +1285,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>20.251981369999999</v>
+        <v>25.394964940000001</v>
       </c>
       <c r="C33" s="1">
-        <v>12.16219671</v>
+        <v>13.846198619999999</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1296,10 +1296,10 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>20.07649588</v>
+        <v>25.119639209999999</v>
       </c>
       <c r="C34" s="1">
-        <v>11.125277179999999</v>
+        <v>12.51793179</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1307,10 +1307,10 @@
         <v>33</v>
       </c>
       <c r="B35" s="1">
-        <v>20.769188840000002</v>
+        <v>26.213525440000002</v>
       </c>
       <c r="C35" s="1">
-        <v>12.59244086</v>
+        <v>14.406581060000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1318,10 +1318,10 @@
         <v>34</v>
       </c>
       <c r="B36" s="1">
-        <v>19.712761390000001</v>
+        <v>24.55279535</v>
       </c>
       <c r="C36" s="1">
-        <v>12.028353299999999</v>
+        <v>13.67298869</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1329,10 +1329,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="1">
-        <v>21.263371230000001</v>
+        <v>27.005691710000001</v>
       </c>
       <c r="C37" s="1">
-        <v>12.176289239999999</v>
+        <v>13.86446683</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1340,10 +1340,10 @@
         <v>36</v>
       </c>
       <c r="B38" s="1">
-        <v>21.47440203</v>
+        <v>27.347008599999999</v>
       </c>
       <c r="C38" s="1">
-        <v>11.14984804</v>
+        <v>12.5490478</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1351,10 +1351,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="1">
-        <v>21.2429205</v>
+        <v>26.972712340000001</v>
       </c>
       <c r="C39" s="1">
-        <v>12.964724759999999</v>
+        <v>14.895942740000001</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1362,10 +1362,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="1">
-        <v>21.601425679999998</v>
+        <v>27.553339919999999</v>
       </c>
       <c r="C40" s="1">
-        <v>13.01021742</v>
+        <v>14.95602935</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1373,10 +1373,10 @@
         <v>39</v>
       </c>
       <c r="B41" s="1">
-        <v>19.723902809999998</v>
+        <v>24.570081890000001</v>
       </c>
       <c r="C41" s="1">
-        <v>11.51719662</v>
+        <v>13.016310710000001</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1384,10 +1384,10 @@
         <v>40</v>
       </c>
       <c r="B42" s="1">
-        <v>24.996248600000001</v>
+        <v>33.326664520000001</v>
       </c>
       <c r="C42" s="1">
-        <v>10.86066385</v>
+        <v>12.18391825</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1395,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="B43" s="1">
-        <v>25.48794947</v>
+        <v>34.20647975</v>
       </c>
       <c r="C43" s="1">
-        <v>11.24487047</v>
+        <v>12.66954432</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1406,10 +1406,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="1">
-        <v>23.3096934</v>
+        <v>30.394575830000001</v>
       </c>
       <c r="C44" s="1">
-        <v>10.86851699</v>
+        <v>12.193802489999999</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1417,10 +1417,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>24.959827730000001</v>
+        <v>33.261954199999998</v>
       </c>
       <c r="C45" s="1">
-        <v>10.954392520000001</v>
+        <v>12.302002119999999</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1428,10 +1428,10 @@
         <v>44</v>
       </c>
       <c r="B46" s="1">
-        <v>23.250652909999999</v>
+        <v>30.294268020000001</v>
       </c>
       <c r="C46" s="1">
-        <v>10.52100121</v>
+        <v>11.758067649999999</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1439,10 +1439,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="1">
-        <v>22.835784690000001</v>
+        <v>29.593749639999999</v>
       </c>
       <c r="C47" s="1">
-        <v>10.432394739999999</v>
+        <v>11.64750884</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1450,10 +1450,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="1">
-        <v>25.258506929999999</v>
+        <v>33.794490699999997</v>
       </c>
       <c r="C48" s="1">
-        <v>10.938638149999999</v>
+        <v>12.28213663</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1461,10 +1461,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="1">
-        <v>23.969246389999999</v>
+        <v>31.525725130000001</v>
       </c>
       <c r="C49" s="1">
-        <v>11.215379479999999</v>
+        <v>12.63211963</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1472,10 +1472,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="1">
-        <v>23.370083770000001</v>
+        <v>30.497336959999998</v>
       </c>
       <c r="C50" s="1">
-        <v>10.39638244</v>
+        <v>11.60263696</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1483,10 +1483,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="1">
-        <v>22.215562089999999</v>
+        <v>28.56041991</v>
       </c>
       <c r="C51" s="1">
-        <v>10.29016685</v>
+        <v>11.47050048</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1494,10 +1494,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1">
-        <v>23.135864640000001</v>
+        <v>30.099687629999998</v>
       </c>
       <c r="C52" s="1">
-        <v>11.27799564</v>
+        <v>12.711610520000001</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1505,10 +1505,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="1">
-        <v>22.838201389999998</v>
+        <v>29.59780851</v>
       </c>
       <c r="C53" s="1">
-        <v>11.71493744</v>
+        <v>13.26944456</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1516,10 +1516,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="1">
-        <v>22.786053150000001</v>
+        <v>29.510281599999999</v>
       </c>
       <c r="C54" s="1">
-        <v>10.29502179</v>
+        <v>11.476533399999999</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1527,10 +1527,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="1">
-        <v>25.404014799999999</v>
+        <v>34.055471930000003</v>
       </c>
       <c r="C55" s="1">
-        <v>12.450807040000001</v>
+        <v>14.22149836</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1538,10 +1538,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="1">
-        <v>22.514046069999999</v>
+        <v>29.055648049999999</v>
       </c>
       <c r="C56" s="1">
-        <v>9.9336558939999993</v>
+        <v>11.02926514</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1549,10 +1549,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="1">
-        <v>23.927652559999999</v>
+        <v>31.453811219999999</v>
       </c>
       <c r="C57" s="1">
-        <v>11.44988893</v>
+        <v>12.930406059999999</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1560,10 +1560,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="1">
-        <v>21.26160724</v>
+        <v>27.00284637</v>
       </c>
       <c r="C58" s="1">
-        <v>10.8401256</v>
+        <v>12.158076339999999</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1571,10 +1571,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="1">
-        <v>25.74790853</v>
+        <v>34.676341119999996</v>
       </c>
       <c r="C59" s="1">
-        <v>11.144181659999999</v>
+        <v>12.541870490000001</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1582,10 +1582,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="1">
-        <v>24.42887017</v>
+        <v>32.325664869999997</v>
       </c>
       <c r="C60" s="1">
-        <v>10.73911796</v>
+        <v>12.03115824</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1593,10 +1593,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1">
-        <v>25.450918829999999</v>
+        <v>34.139815579999997</v>
       </c>
       <c r="C61" s="1">
-        <v>11.52654339</v>
+        <v>13.028250310000001</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1604,10 +1604,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1">
-        <v>24.755116210000001</v>
+        <v>32.899401210000001</v>
       </c>
       <c r="C62" s="1">
-        <v>17.01329076</v>
+        <v>20.501223530000001</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1615,10 +1615,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1">
-        <v>22.924762399999999</v>
+        <v>29.743356129999999</v>
       </c>
       <c r="C63" s="1">
-        <v>17.854504030000001</v>
+        <v>21.735219709999999</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1626,10 +1626,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1">
-        <v>24.672760329999999</v>
+        <v>32.754101230000003</v>
       </c>
       <c r="C64" s="1">
-        <v>17.697559330000001</v>
+        <v>21.503079589999999</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1637,10 +1637,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="1">
-        <v>24.317598570000001</v>
+        <v>32.131113849999998</v>
       </c>
       <c r="C65" s="1">
-        <v>18.51198947</v>
+        <v>22.717439479999999</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1648,10 +1648,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="1">
-        <v>25.063207340000002</v>
+        <v>33.445796719999997</v>
       </c>
       <c r="C66" s="1">
-        <v>17.5633786</v>
+        <v>21.305311039999999</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1659,10 +1659,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="1">
-        <v>24.6184479</v>
+        <v>32.658451849999999</v>
       </c>
       <c r="C67" s="1">
-        <v>17.483032260000002</v>
+        <v>21.187196700000001</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1670,10 +1670,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="1">
-        <v>25.412852279999999</v>
+        <v>34.071355529999998</v>
       </c>
       <c r="C68" s="1">
-        <v>16.906078189999999</v>
+        <v>20.345745900000001</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1681,10 +1681,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="1">
-        <v>23.72489959</v>
+        <v>31.104383299999999</v>
       </c>
       <c r="C69" s="1">
-        <v>16.880464060000001</v>
+        <v>20.30866013</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1692,10 +1692,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="1">
-        <v>23.886316799999999</v>
+        <v>31.382421399999998</v>
       </c>
       <c r="C70" s="1">
-        <v>17.84714567</v>
+        <v>21.724315990000001</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1703,10 +1703,10 @@
         <v>69</v>
       </c>
       <c r="B71" s="1">
-        <v>23.524873920000001</v>
+        <v>30.76147125</v>
       </c>
       <c r="C71" s="1">
-        <v>17.22710816</v>
+        <v>20.812500060000001</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1714,10 +1714,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="1">
-        <v>23.61239776</v>
+        <v>30.911295899999999</v>
       </c>
       <c r="C72" s="1">
-        <v>17.138791059999999</v>
+        <v>20.683732809999999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1725,10 +1725,10 @@
         <v>71</v>
       </c>
       <c r="B73" s="1">
-        <v>23.733397409999998</v>
+        <v>31.118991279999999</v>
       </c>
       <c r="C73" s="1">
-        <v>17.339849059999999</v>
+        <v>20.977277279999999</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1736,10 +1736,10 @@
         <v>72</v>
       </c>
       <c r="B74" s="1">
-        <v>22.945908849999999</v>
+        <v>29.77896243</v>
       </c>
       <c r="C74" s="1">
-        <v>17.17956118</v>
+        <v>20.743141940000001</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1747,10 +1747,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="1">
-        <v>24.370966679999999</v>
+        <v>32.224353020000002</v>
       </c>
       <c r="C75" s="1">
-        <v>17.05372298</v>
+        <v>20.55996193</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1758,10 +1758,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="1">
-        <v>22.78778097</v>
+        <v>29.51317972</v>
       </c>
       <c r="C76" s="1">
-        <v>17.94411169</v>
+        <v>21.868158480000002</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1769,10 +1769,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="1">
-        <v>23.92578954</v>
+        <v>31.450591979999999</v>
       </c>
       <c r="C77" s="1">
-        <v>16.857837310000001</v>
+        <v>20.275918690000001</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1780,10 +1780,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="1">
-        <v>24.42273711</v>
+        <v>32.314926700000001</v>
       </c>
       <c r="C78" s="1">
-        <v>17.04964184</v>
+        <v>20.554030409999999</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1791,10 +1791,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="1">
-        <v>22.970126</v>
+        <v>29.819763170000002</v>
       </c>
       <c r="C79" s="1">
-        <v>17.72866273</v>
+        <v>21.5490149</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1802,10 +1802,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="1">
-        <v>25.34423958</v>
+        <v>33.948136669999997</v>
       </c>
       <c r="C80" s="1">
-        <v>18.00287883</v>
+        <v>21.955501089999998</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1813,10 +1813,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="1">
-        <v>24.285703420000001</v>
+        <v>32.075452740000003</v>
       </c>
       <c r="C81" s="1">
-        <v>17.45217774</v>
+        <v>21.141899649999999</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1824,10 +1824,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="1">
-        <v>24.611782600000002</v>
+        <v>32.646723119999997</v>
       </c>
       <c r="C82" s="1">
-        <v>6.3926714530000002</v>
+        <v>6.8292424880000002</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1835,10 +1835,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="1">
-        <v>21.627818250000001</v>
+        <v>27.596294709999999</v>
       </c>
       <c r="C83" s="1">
-        <v>6.4747960689999999</v>
+        <v>6.9230493989999999</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1846,10 +1846,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="1">
-        <v>24.311690670000001</v>
+        <v>32.120800269999997</v>
       </c>
       <c r="C84" s="1">
-        <v>5.5323411819999997</v>
+        <v>5.856333534</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1857,10 +1857,10 @@
         <v>83</v>
       </c>
       <c r="B85" s="1">
-        <v>23.114456740000001</v>
+        <v>30.063462860000001</v>
       </c>
       <c r="C85" s="1">
-        <v>7.0661796580000003</v>
+        <v>7.6034533309999999</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1868,10 +1868,10 @@
         <v>84</v>
       </c>
       <c r="B86" s="1">
-        <v>22.333089220000002</v>
+        <v>28.75496012</v>
       </c>
       <c r="C86" s="1">
-        <v>5.9457397099999998</v>
+        <v>6.321605946</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1879,10 +1879,10 @@
         <v>85</v>
       </c>
       <c r="B87" s="1">
-        <v>22.78287585</v>
+        <v>29.50495256</v>
       </c>
       <c r="C87" s="1">
-        <v>5.2895975389999998</v>
+        <v>5.5850227659999998</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1890,10 +1890,10 @@
         <v>86</v>
       </c>
       <c r="B88" s="1">
-        <v>23.040867389999999</v>
+        <v>29.939094430000001</v>
       </c>
       <c r="C88" s="1">
-        <v>6.6322838009999998</v>
+        <v>7.1034015510000001</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1901,10 +1901,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="1">
-        <v>22.829205869999999</v>
+        <v>29.582701749999998</v>
       </c>
       <c r="C89" s="1">
-        <v>6.6278505760000002</v>
+        <v>7.0983163789999999</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1912,10 +1912,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="1">
-        <v>23.54559832</v>
+        <v>30.796916599999999</v>
       </c>
       <c r="C90" s="1">
-        <v>7.1481014219999999</v>
+        <v>7.6983901579999996</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1923,10 +1923,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="1">
-        <v>23.005755669999999</v>
+        <v>29.879838249999999</v>
       </c>
       <c r="C91" s="1">
-        <v>5.848540925</v>
+        <v>6.2118431120000004</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1934,10 +1934,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="1">
-        <v>23.68329233</v>
+        <v>31.032906229999998</v>
       </c>
       <c r="C92" s="1">
-        <v>6.208367655</v>
+        <v>6.6193193360000002</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1945,10 +1945,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="1">
-        <v>23.448557829999999</v>
+        <v>30.631111789999999</v>
       </c>
       <c r="C93" s="1">
-        <v>7.069185772</v>
+        <v>7.6069340729999997</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1956,10 +1956,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="1">
-        <v>24.246259049999999</v>
+        <v>32.006682099999999</v>
       </c>
       <c r="C94" s="1">
-        <v>7.0611049960000001</v>
+        <v>7.597577952</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1967,10 +1967,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="1">
-        <v>24.801206749999999</v>
+        <v>32.980857370000003</v>
       </c>
       <c r="C95" s="1">
-        <v>6.746370583</v>
+        <v>7.2344321880000004</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1978,10 +1978,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="1">
-        <v>24.374439079999998</v>
+        <v>32.230424200000002</v>
       </c>
       <c r="C96" s="1">
-        <v>5.9371064609999999</v>
+        <v>6.3118475710000004</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1989,10 +1989,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="1">
-        <v>23.818784569999998</v>
+        <v>31.265955040000001</v>
       </c>
       <c r="C97" s="1">
-        <v>5.7942787349999998</v>
+        <v>6.1506654349999996</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2000,10 +2000,10 @@
         <v>96</v>
       </c>
       <c r="B98" s="1">
-        <v>24.383958790000001</v>
+        <v>32.247071380000001</v>
       </c>
       <c r="C98" s="1">
-        <v>6.2223709920000001</v>
+        <v>6.6352402560000003</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2011,10 +2011,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="1">
-        <v>22.739125820000002</v>
+        <v>29.431618610000001</v>
       </c>
       <c r="C99" s="1">
-        <v>5.9024601380000004</v>
+        <v>6.2727039900000001</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2022,10 +2022,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="1">
-        <v>23.777640030000001</v>
+        <v>31.19509819</v>
       </c>
       <c r="C100" s="1">
-        <v>6.9877026280000001</v>
+        <v>7.512665342</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2033,10 +2033,10 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>23.262265549999999</v>
+        <v>30.31398531</v>
       </c>
       <c r="C101" s="1">
-        <v>6.1945572960000002</v>
+        <v>6.6036224729999997</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2044,10 +2044,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1">
-        <v>24.660436570000002</v>
+        <v>32.732385809999997</v>
       </c>
       <c r="C102" s="1">
-        <v>13.285936599999999</v>
+        <v>15.32154772</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2055,10 +2055,10 @@
         <v>101</v>
       </c>
       <c r="B103" s="1">
-        <v>25.345496019999999</v>
+        <v>33.950391019999998</v>
       </c>
       <c r="C103" s="1">
-        <v>14.393277940000001</v>
+        <v>16.813256710000001</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2066,10 +2066,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="1">
-        <v>25.351759900000001</v>
+        <v>33.961631070000003</v>
       </c>
       <c r="C104" s="1">
-        <v>12.873266599999999</v>
+        <v>14.77533485</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2077,10 +2077,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="1">
-        <v>25.005785150000001</v>
+        <v>33.343618839999998</v>
       </c>
       <c r="C105" s="1">
-        <v>12.048911390000001</v>
+        <v>13.699559130000001</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2088,10 +2088,10 @@
         <v>104</v>
       </c>
       <c r="B106" s="1">
-        <v>25.564479739999999</v>
+        <v>34.34446303</v>
       </c>
       <c r="C106" s="1">
-        <v>12.740423789999999</v>
+        <v>14.60060242</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2099,10 +2099,10 @@
         <v>105</v>
       </c>
       <c r="B107" s="1">
-        <v>24.70674022</v>
+        <v>32.814013209999999</v>
       </c>
       <c r="C107" s="1">
-        <v>13.606232049999999</v>
+        <v>15.749089740000001</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2110,10 +2110,10 @@
         <v>106</v>
       </c>
       <c r="B108" s="1">
-        <v>25.343487419999999</v>
+        <v>33.946787149999999</v>
       </c>
       <c r="C108" s="1">
-        <v>11.442066349999999</v>
+        <v>12.92043059</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2121,10 +2121,10 @@
         <v>107</v>
       </c>
       <c r="B109" s="1">
-        <v>23.960698480000001</v>
+        <v>31.510939740000001</v>
       </c>
       <c r="C109" s="1">
-        <v>12.717521939999999</v>
+        <v>14.57053262</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2132,10 +2132,10 @@
         <v>108</v>
       </c>
       <c r="B110" s="1">
-        <v>24.51792554</v>
+        <v>32.481785539999997</v>
       </c>
       <c r="C110" s="1">
-        <v>15.33724973</v>
+        <v>18.115699859999999</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2143,10 +2143,10 @@
         <v>109</v>
       </c>
       <c r="B111" s="1">
-        <v>24.729313040000001</v>
+        <v>32.853842630000003</v>
       </c>
       <c r="C111" s="1">
-        <v>11.87707687</v>
+        <v>13.47785167</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2154,10 +2154,10 @@
         <v>110</v>
       </c>
       <c r="B112" s="1">
-        <v>24.96512113</v>
+        <v>33.271355270000001</v>
       </c>
       <c r="C112" s="1">
-        <v>12.8995137</v>
+        <v>14.809921559999999</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2165,10 +2165,10 @@
         <v>111</v>
       </c>
       <c r="B113" s="1">
-        <v>23.70620899</v>
+        <v>31.072265099999999</v>
       </c>
       <c r="C113" s="1">
-        <v>11.62169145</v>
+        <v>13.149936500000001</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2176,10 +2176,10 @@
         <v>112</v>
       </c>
       <c r="B114" s="1">
-        <v>25.510436980000001</v>
+        <v>34.246995069999997</v>
       </c>
       <c r="C114" s="1">
-        <v>12.19817535</v>
+        <v>13.89284949</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2187,10 +2187,10 @@
         <v>113</v>
       </c>
       <c r="B115" s="1">
-        <v>24.78865824</v>
+        <v>32.958670419999997</v>
       </c>
       <c r="C115" s="1">
-        <v>13.000843290000001</v>
+        <v>14.943642880000001</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2198,10 +2198,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="1">
-        <v>25.092295780000001</v>
+        <v>33.497616880000002</v>
       </c>
       <c r="C116" s="1">
-        <v>14.957142920000001</v>
+        <v>17.58777096</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2209,10 +2209,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="1">
-        <v>24.80738874</v>
+        <v>32.991790450000003</v>
       </c>
       <c r="C117" s="1">
-        <v>14.32589186</v>
+        <v>16.72137845</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2220,10 +2220,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="1">
-        <v>24.865296959999998</v>
+        <v>33.094290600000001</v>
       </c>
       <c r="C118" s="1">
-        <v>12.45139238</v>
+        <v>14.22226203</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2231,10 +2231,10 @@
         <v>117</v>
       </c>
       <c r="B119" s="1">
-        <v>25.129403629999999</v>
+        <v>33.563781849999998</v>
       </c>
       <c r="C119" s="1">
-        <v>13.17236381</v>
+        <v>15.170704150000001</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2242,10 +2242,10 @@
         <v>118</v>
       </c>
       <c r="B120" s="1">
-        <v>24.814783349999999</v>
+        <v>33.004870439999998</v>
       </c>
       <c r="C120" s="1">
-        <v>13.05104592</v>
+        <v>15.0100091</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2253,10 +2253,10 @@
         <v>119</v>
       </c>
       <c r="B121" s="1">
-        <v>25.67281916</v>
+        <v>34.54028375</v>
       </c>
       <c r="C121" s="1">
-        <v>12.11373762</v>
+        <v>13.783425640000001</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2264,10 +2264,10 @@
         <v>120</v>
       </c>
       <c r="B122" s="1">
-        <v>24.846809329999999</v>
+        <v>33.061549499999998</v>
       </c>
       <c r="C122" s="1">
-        <v>8.9482475570000002</v>
+        <v>9.8276500080000009</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2275,10 +2275,10 @@
         <v>121</v>
       </c>
       <c r="B123" s="1">
-        <v>23.04111778</v>
+        <v>29.939517200000001</v>
       </c>
       <c r="C123" s="1">
-        <v>8.5647296149999992</v>
+        <v>9.3669866989999999</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2286,10 +2286,10 @@
         <v>122</v>
       </c>
       <c r="B124" s="1">
-        <v>23.177556549999998</v>
+        <v>30.170293350000001</v>
       </c>
       <c r="C124" s="1">
-        <v>8.4633516820000008</v>
+        <v>9.2458614529999998</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2297,10 +2297,10 @@
         <v>123</v>
       </c>
       <c r="B125" s="1">
-        <v>24.178645509999999</v>
+        <v>31.888965410000001</v>
       </c>
       <c r="C125" s="1">
-        <v>9.8329727479999995</v>
+        <v>10.905286609999999</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2308,10 +2308,10 @@
         <v>124</v>
       </c>
       <c r="B126" s="1">
-        <v>26.043295780000001</v>
+        <v>35.214246029999998</v>
       </c>
       <c r="C126" s="1">
-        <v>9.5076957150000005</v>
+        <v>10.50663456</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2319,10 +2319,10 @@
         <v>125</v>
       </c>
       <c r="B127" s="1">
-        <v>24.55563974</v>
+        <v>32.548012409999998</v>
       </c>
       <c r="C127" s="1">
-        <v>8.2776849059999993</v>
+        <v>9.0247230429999998</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2330,10 +2330,10 @@
         <v>126</v>
       </c>
       <c r="B128" s="1">
-        <v>24.714901579999999</v>
+        <v>32.828411070000001</v>
       </c>
       <c r="C128" s="1">
-        <v>9.1535948699999992</v>
+        <v>10.075902129999999</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2341,10 +2341,10 @@
         <v>127</v>
       </c>
       <c r="B129" s="1">
-        <v>23.669312229999999</v>
+        <v>31.008907319999999</v>
       </c>
       <c r="C129" s="1">
-        <v>9.1488336459999999</v>
+        <v>10.0701334</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2352,10 +2352,10 @@
         <v>128</v>
       </c>
       <c r="B130" s="1">
-        <v>24.136542250000002</v>
+        <v>31.81576871</v>
       </c>
       <c r="C130" s="1">
-        <v>8.3550937110000003</v>
+        <v>9.1168118880000009</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2363,10 +2363,10 @@
         <v>129</v>
       </c>
       <c r="B131" s="1">
-        <v>24.562692819999999</v>
+        <v>32.560405109999998</v>
       </c>
       <c r="C131" s="1">
-        <v>8.5166190840000002</v>
+        <v>9.3094712929999996</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2374,10 +2374,10 @@
         <v>130</v>
       </c>
       <c r="B132" s="1">
-        <v>25.582335709999999</v>
+        <v>34.376697989999997</v>
       </c>
       <c r="C132" s="1">
-        <v>9.6479693280000003</v>
+        <v>10.67819866</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2385,10 +2385,10 @@
         <v>131</v>
       </c>
       <c r="B133" s="1">
-        <v>23.84994974</v>
+        <v>31.319676950000002</v>
       </c>
       <c r="C133" s="1">
-        <v>11.05986818</v>
+        <v>12.43518304</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2396,10 +2396,10 @@
         <v>132</v>
       </c>
       <c r="B134" s="1">
-        <v>24.57880596</v>
+        <v>32.588725590000003</v>
       </c>
       <c r="C134" s="1">
-        <v>9.4289689239999994</v>
+        <v>10.410579200000001</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2407,10 +2407,10 @@
         <v>133</v>
       </c>
       <c r="B135" s="1">
-        <v>25.6681238</v>
+        <v>34.531785159999998</v>
       </c>
       <c r="C135" s="1">
-        <v>9.6682185250000003</v>
+        <v>10.70300881</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2418,10 +2418,10 @@
         <v>134</v>
       </c>
       <c r="B136" s="1">
-        <v>25.07505252</v>
+        <v>33.4668937</v>
       </c>
       <c r="C136" s="1">
-        <v>9.5277037789999994</v>
+        <v>10.53107324</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2429,10 +2429,10 @@
         <v>135</v>
       </c>
       <c r="B137" s="1">
-        <v>25.032452979999999</v>
+        <v>33.391052500000001</v>
       </c>
       <c r="C137" s="1">
-        <v>9.5096289760000001</v>
+        <v>10.50899545</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2440,10 +2440,10 @@
         <v>136</v>
       </c>
       <c r="B138" s="1">
-        <v>24.803961449999999</v>
+        <v>32.985728950000002</v>
       </c>
       <c r="C138" s="1">
-        <v>9.5993881259999991</v>
+        <v>10.6187203</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2451,10 +2451,10 @@
         <v>137</v>
       </c>
       <c r="B139" s="1">
-        <v>25.46955943</v>
+        <v>34.173364909999997</v>
       </c>
       <c r="C139" s="1">
-        <v>9.0368793180000004</v>
+        <v>9.9346628060000004</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2462,10 +2462,10 @@
         <v>138</v>
       </c>
       <c r="B140" s="1">
-        <v>26.16436732</v>
+        <v>35.435962799999999</v>
       </c>
       <c r="C140" s="1">
-        <v>9.7309384940000001</v>
+        <v>10.779926509999999</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2473,10 +2473,10 @@
         <v>139</v>
       </c>
       <c r="B141" s="1">
-        <v>23.88301362</v>
+        <v>31.376719909999998</v>
       </c>
       <c r="C141" s="1">
-        <v>8.7162238070000004</v>
+        <v>9.5484917150000008</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2484,10 +2484,10 @@
         <v>140</v>
       </c>
       <c r="B142" s="1">
-        <v>25.9358456</v>
+        <v>35.018081029999998</v>
       </c>
       <c r="C142" s="1">
-        <v>20.215702149999998</v>
+        <v>25.337945810000001</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2495,10 +2495,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="1">
-        <v>26.54525027</v>
+        <v>36.138235270000003</v>
       </c>
       <c r="C143" s="1">
-        <v>16.214887869999998</v>
+        <v>19.352946429999999</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2506,10 +2506,10 @@
         <v>142</v>
       </c>
       <c r="B144" s="1">
-        <v>25.529424420000002</v>
+        <v>34.281223449999999</v>
       </c>
       <c r="C144" s="1">
-        <v>17.999320220000001</v>
+        <v>21.950208549999999</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2517,10 +2517,10 @@
         <v>143</v>
       </c>
       <c r="B145" s="1">
-        <v>26.305680779999999</v>
+        <v>35.695669709999997</v>
       </c>
       <c r="C145" s="1">
-        <v>19.690078870000001</v>
+        <v>24.51761699</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2528,10 +2528,10 @@
         <v>144</v>
       </c>
       <c r="B146" s="1">
-        <v>26.485921359999999</v>
+        <v>36.028366060000003</v>
       </c>
       <c r="C146" s="1">
-        <v>20.657094050000001</v>
+        <v>26.035212349999998</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2539,10 +2539,10 @@
         <v>145</v>
       </c>
       <c r="B147" s="1">
-        <v>25.92027234</v>
+        <v>34.989697120000002</v>
       </c>
       <c r="C147" s="1">
-        <v>18.89471026</v>
+        <v>23.296520260000001</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2550,10 +2550,10 @@
         <v>146</v>
       </c>
       <c r="B148" s="1">
-        <v>26.281658119999999</v>
+        <v>35.651450439999998</v>
       </c>
       <c r="C148" s="1">
-        <v>19.826835299999999</v>
+        <v>24.730014560000001</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2561,10 +2561,10 @@
         <v>147</v>
       </c>
       <c r="B149" s="1">
-        <v>25.50489116</v>
+        <v>34.237000999999999</v>
       </c>
       <c r="C149" s="1">
-        <v>19.061350239999999</v>
+        <v>23.550368460000001</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2572,10 +2572,10 @@
         <v>148</v>
       </c>
       <c r="B150" s="1">
-        <v>26.574281450000001</v>
+        <v>36.19206183</v>
       </c>
       <c r="C150" s="1">
-        <v>18.743223820000001</v>
+        <v>23.066659420000001</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2583,10 +2583,10 @@
         <v>149</v>
       </c>
       <c r="B151" s="1">
-        <v>27.376314699999998</v>
+        <v>37.696124320000003</v>
       </c>
       <c r="C151" s="1">
-        <v>19.44858885</v>
+        <v>24.144317990000001</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2594,10 +2594,10 @@
         <v>150</v>
       </c>
       <c r="B152" s="1">
-        <v>25.903839919999999</v>
+        <v>34.959760250000002</v>
       </c>
       <c r="C152" s="1">
-        <v>20.853086770000001</v>
+        <v>26.34731528</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2605,10 +2605,10 @@
         <v>151</v>
       </c>
       <c r="B153" s="1">
-        <v>26.03785392</v>
+        <v>35.204297480000001</v>
       </c>
       <c r="C153" s="1">
-        <v>20.50057623</v>
+        <v>25.78707524</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2616,10 +2616,10 @@
         <v>152</v>
       </c>
       <c r="B154" s="1">
-        <v>26.16325836</v>
+        <v>35.43392867</v>
       </c>
       <c r="C154" s="1">
-        <v>18.839366989999998</v>
+        <v>23.212444609999999</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2627,10 +2627,10 @@
         <v>153</v>
       </c>
       <c r="B155" s="1">
-        <v>26.448573960000001</v>
+        <v>35.959294579999998</v>
       </c>
       <c r="C155" s="1">
-        <v>21.170870860000001</v>
+        <v>26.856659579999999</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2638,10 +2638,10 @@
         <v>154</v>
       </c>
       <c r="B156" s="1">
-        <v>25.111273149999999</v>
+        <v>33.531446199999998</v>
       </c>
       <c r="C156" s="1">
-        <v>18.69036105</v>
+        <v>22.986648679999998</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2649,10 +2649,10 @@
         <v>155</v>
       </c>
       <c r="B157" s="1">
-        <v>25.508257820000001</v>
+        <v>34.243067850000003</v>
       </c>
       <c r="C157" s="1">
-        <v>20.089024800000001</v>
+        <v>25.139256209999999</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2660,10 +2660,10 @@
         <v>156</v>
       </c>
       <c r="B158" s="1">
-        <v>26.758440419999999</v>
+        <v>36.534503860000001</v>
       </c>
       <c r="C158" s="1">
-        <v>19.113379869999999</v>
+        <v>23.629841169999999</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2671,10 +2671,10 @@
         <v>157</v>
       </c>
       <c r="B159" s="1">
-        <v>24.737857330000001</v>
+        <v>32.868925130000001</v>
       </c>
       <c r="C159" s="1">
-        <v>19.63090137</v>
+        <v>24.425931980000001</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2682,10 +2682,10 @@
         <v>158</v>
       </c>
       <c r="B160" s="1">
-        <v>26.348188610000001</v>
+        <v>35.773985879999998</v>
       </c>
       <c r="C160" s="1">
-        <v>19.473541149999999</v>
+        <v>24.182785920000001</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2693,10 +2693,10 @@
         <v>159</v>
       </c>
       <c r="B161" s="1">
-        <v>25.433558319999999</v>
+        <v>34.108585239999996</v>
       </c>
       <c r="C161" s="1">
-        <v>21.108609470000001</v>
+        <v>26.756543820000001</v>
       </c>
     </row>
   </sheetData>
